--- a/สถานะฟังก์ชั่น.xlsx
+++ b/สถานะฟังก์ชั่น.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mook Space\work\college\project1\Analytics_and_Prediction_System_for_CE_Curriculum_administrators\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naraw\Documents\GitHub\Project_APS_CE_Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C912632C-E967-473F-B1D9-C9D00CB83FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572B8561-D290-4BFE-AD9A-A36E6FEC0748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3BDAEE04-3F0B-4E7B-AA3F-A5D1470C0DA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3BDAEE04-3F0B-4E7B-AA3F-A5D1470C0DA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>ชื่อฟังก์ชั่น</t>
   </si>
@@ -126,27 +126,100 @@
   </si>
   <si>
     <t>โชว์เนื้อหาบทคัดย่อของวิชาเลือกภาค</t>
+  </si>
+  <si>
+    <t>มี 2 prediction เส้นแล้ว 1 เส้น</t>
+  </si>
+  <si>
+    <t>เหลือตรวจสอบ</t>
+  </si>
+  <si>
+    <t>on research</t>
+  </si>
+  <si>
+    <t>รอ data</t>
+  </si>
+  <si>
+    <t>แก้ไขยังไง</t>
+  </si>
+  <si>
+    <t>ลบยังไง</t>
+  </si>
+  <si>
+    <t>เหลือจัดรูปแบบ response</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -158,13 +231,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Accent4" xfId="4" builtinId="41"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -480,17 +565,18 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.625" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -504,137 +590,238 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>28</v>
       </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>